--- a/DDAf_2024_Tableau_annexe_Tab08.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{208F354C-321C-42F0-A77E-7B22532D38F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{208135FA-D3B7-4736-A1D1-93E434AE148F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F3D3EC18-DB31-4EB4-99AC-6BF170EFB23E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3ACE25-1B43-4771-8228-1458D72E6D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>
@@ -1505,20 +1505,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0BBD91-B7DC-4CE1-B9F2-8FA62E4E259F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005D81AA-06DF-4D24-9B41-743C57D74682}">
   <dimension ref="A1:S114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="12.453125" style="92" bestFit="1" customWidth="1"/>
-    <col min="10" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="12.42578125" style="92" bestFit="1" customWidth="1"/>
+    <col min="10" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1540,7 +1540,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>2.09824820684435</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>7.0538823485478002</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>24</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>15.4882302835278</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>22.830551278573498</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>4.0448229941762301</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>30</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>4.8369170835897304</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>32</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>7.7870801117360697</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>8.0780274401434795</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>36</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>5.7778551337397097</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>38</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>5.5593273920501298</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>40</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>8.3554942272928905</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>42</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>1.17302136552187</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>44</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>10.890436904474299</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>46</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>4.5028951683466696</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>48</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>7.4849372834665902</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>50</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>17.322457378507099</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>52</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>6.8228457185360503</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>54</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>7.9092015359189602</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>56</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>7.4386286355988096</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>58</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>9.6748194812244002</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
         <v>40</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>8.1354714968438593</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>61</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>5.8890601071518898</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>63</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>0.25745523396100001</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>65</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>5.0452489693625502</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>68</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>3.1717691878616399</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>70</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>6.8428720257469902</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>72</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>5.6280031037367797</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>74</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>11.456871346428899</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>76</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>4.0052286270309798</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>78</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>80</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>10.820100197608101</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>82</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>5.7691130108977502</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>84</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>7.5750745549017502</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>86</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>4.6422122162137303</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>88</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>4.2952918561846296</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="34" t="s">
         <v>40</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>5.7998692643912904</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>91</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>10.505882706101801</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>93</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>12.5862943310527</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>95</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>8.5927495890828602</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>97</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>6.5945328750781496</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>99</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>10.9740187466662</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>101</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>18.187156627542802</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="34" t="s">
         <v>40</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>11.2401058125874</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>104</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>16.7481397021246</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>106</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>4.1130347444669804</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>108</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>9.8911862308918099</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>110</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>6.92372497389076</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>112</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>1.31276795182878</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>114</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>11.8215845681005</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>116</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>2.8451543203425902</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>118</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>7.1299567641854198</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>120</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>3.3722101629032402</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>122</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>6.9757599439474003</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>124</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>5.7704877086398296</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>126</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>11.2382155220087</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>128</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>13.114209119057501</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>130</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>4.5618678766767502</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>132</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>15.2284926104772</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="34"/>
       <c r="B61" s="35" t="s">
         <v>134</v>
@@ -5078,7 +5078,7 @@
         <v>8.0697861466361402</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="57"/>
       <c r="B62" s="58" t="s">
         <v>135</v>
@@ -5135,7 +5135,7 @@
         <v>7.9369794954090001</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="57"/>
       <c r="B63" s="63" t="s">
         <v>136</v>
@@ -5192,7 +5192,7 @@
         <v>11.6449071492674</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="67"/>
       <c r="B64" s="68" t="s">
         <v>137</v>
@@ -5249,7 +5249,7 @@
         <v>9.8896253613776004</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="67"/>
       <c r="B65" s="63" t="s">
         <v>138</v>
@@ -5306,7 +5306,7 @@
         <v>11.998035397933499</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="67"/>
       <c r="B66" s="76" t="s">
         <v>139</v>
@@ -5363,7 +5363,7 @@
         <v>10.5408612748039</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="67"/>
       <c r="B67" s="63" t="s">
         <v>140</v>
@@ -5420,7 +5420,7 @@
         <v>7.1609639322602696</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="67"/>
       <c r="B68" s="63" t="s">
         <v>141</v>
@@ -5477,7 +5477,7 @@
         <v>8.2517167795987394</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="67"/>
       <c r="B69" s="63" t="s">
         <v>142</v>
@@ -5534,7 +5534,7 @@
         <v>4.7929406885902903</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="67"/>
       <c r="B70" s="63" t="s">
         <v>143</v>
@@ -5591,7 +5591,7 @@
         <v>7.2111563914063801</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="67"/>
       <c r="B71" s="63" t="s">
         <v>144</v>
@@ -5648,7 +5648,7 @@
         <v>8.0697861466361402</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="67"/>
       <c r="B72" s="63" t="s">
         <v>145</v>
@@ -5705,7 +5705,7 @@
         <v>5.5330965810231199</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="67"/>
       <c r="B73" s="63" t="s">
         <v>146</v>
@@ -5762,7 +5762,7 @@
         <v>7.8662623176664104</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="67"/>
       <c r="B74" s="63" t="s">
         <v>146</v>
@@ -5819,7 +5819,7 @@
         <v>10.9708681088944</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="67"/>
       <c r="B75" s="63" t="s">
         <v>147</v>
@@ -5876,7 +5876,7 @@
         <v>6.72622555334714</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="67"/>
       <c r="B76" s="81" t="s">
         <v>148</v>
@@ -5933,7 +5933,7 @@
         <v>12.8124134045168</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="67"/>
       <c r="B77" s="63" t="s">
         <v>149</v>
@@ -5990,7 +5990,7 @@
         <v>10.596249277161199</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="67"/>
       <c r="B78" s="63" t="s">
         <v>149</v>
@@ -6047,7 +6047,7 @@
         <v>15.1408090831252</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="67"/>
       <c r="B79" s="76" t="s">
         <v>150</v>
@@ -6104,7 +6104,7 @@
         <v>13.6099510019059</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="67"/>
       <c r="B80" s="63" t="s">
         <v>151</v>
@@ -6161,7 +6161,7 @@
         <v>8.3606937452388195</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="67"/>
       <c r="B81" s="63" t="s">
         <v>152</v>
@@ -6218,7 +6218,7 @@
         <v>9.5204892879780303</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="67"/>
       <c r="B82" s="63" t="s">
         <v>153</v>
@@ -6275,7 +6275,7 @@
         <v>7.8384412977741604</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="67"/>
       <c r="B83" s="63" t="s">
         <v>154</v>
@@ -6332,7 +6332,7 @@
         <v>12.098666304105899</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="67"/>
       <c r="B84" s="81" t="s">
         <v>155</v>
@@ -6389,7 +6389,7 @@
         <v>5.6199930401975902</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="67"/>
       <c r="B85" s="85" t="s">
         <v>156</v>
@@ -6446,7 +6446,7 @@
         <v>8.3832418907260706</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="67"/>
       <c r="B86" s="63" t="s">
         <v>157</v>
@@ -6503,7 +6503,7 @@
         <v>9.9459843902030496</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="67"/>
       <c r="B87" s="63" t="s">
         <v>158</v>
@@ -6560,7 +6560,7 @@
         <v>10.5661754449022</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="67"/>
       <c r="B88" s="63" t="s">
         <v>159</v>
@@ -6617,7 +6617,7 @@
         <v>8.3309201439224108</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="67"/>
       <c r="B89" s="63" t="s">
         <v>160</v>
@@ -6674,7 +6674,7 @@
         <v>12.2109941759274</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="67"/>
       <c r="B90" s="76" t="s">
         <v>161</v>
@@ -6731,7 +6731,7 @@
         <v>12.0709115708203</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="67"/>
       <c r="B91" s="63" t="s">
         <v>162</v>
@@ -6788,7 +6788,7 @@
         <v>6.4882449866260101</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="67"/>
       <c r="B92" s="63" t="s">
         <v>163</v>
@@ -6845,7 +6845,7 @@
         <v>9.0370996223699898</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="67"/>
       <c r="B93" s="63" t="s">
         <v>164</v>
@@ -6902,7 +6902,7 @@
         <v>8.8083787859764904</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="67"/>
       <c r="B94" s="63" t="s">
         <v>165</v>
@@ -6959,7 +6959,7 @@
         <v>7.6633600780074698</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="67"/>
       <c r="B95" s="63" t="s">
         <v>166</v>
@@ -7016,7 +7016,7 @@
         <v>6.7510130204362202</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="67"/>
       <c r="B96" s="63" t="s">
         <v>167</v>
@@ -7073,7 +7073,7 @@
         <v>9.7208545988144692</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="67"/>
       <c r="B97" s="81" t="s">
         <v>168</v>
@@ -7130,7 +7130,7 @@
         <v>7.1291187414039099</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="67"/>
       <c r="B98" s="76" t="s">
         <v>169</v>
@@ -7187,7 +7187,7 @@
         <v>11.652754612751</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="87"/>
       <c r="B99" s="88"/>
       <c r="C99" s="89"/>
@@ -7208,7 +7208,7 @@
       <c r="R99" s="89"/>
       <c r="S99" s="89"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>170</v>
       </c>
@@ -7230,7 +7230,7 @@
       <c r="R100" s="90"/>
       <c r="S100" s="90"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>171</v>
       </c>
@@ -7252,7 +7252,7 @@
       <c r="R101" s="90"/>
       <c r="S101" s="90"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>172</v>
       </c>
@@ -7274,7 +7274,7 @@
       <c r="R102" s="90"/>
       <c r="S102" s="90"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>173</v>
       </c>
@@ -7296,7 +7296,7 @@
       <c r="R103" s="90"/>
       <c r="S103" s="90"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>174</v>
       </c>
@@ -7318,7 +7318,7 @@
       <c r="R104" s="90"/>
       <c r="S104" s="90"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C105" s="90"/>
       <c r="D105" s="90"/>
       <c r="E105" s="90"/>
@@ -7337,7 +7337,7 @@
       <c r="R105" s="90"/>
       <c r="S105" s="90"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C106" s="90"/>
       <c r="D106" s="90"/>
       <c r="E106" s="90"/>
@@ -7356,7 +7356,7 @@
       <c r="R106" s="90"/>
       <c r="S106" s="90"/>
     </row>
-    <row r="107" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="91" t="s">
         <v>175</v>
       </c>
@@ -7378,7 +7378,7 @@
       <c r="R107" s="90"/>
       <c r="S107" s="90"/>
     </row>
-    <row r="108" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="91"/>
       <c r="C108" s="90"/>
       <c r="D108" s="90"/>
@@ -7398,7 +7398,7 @@
       <c r="R108" s="90"/>
       <c r="S108" s="90"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>177</v>
       </c>
@@ -7420,7 +7420,7 @@
       <c r="R109" s="90"/>
       <c r="S109" s="90"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>178</v>
       </c>
@@ -7442,7 +7442,7 @@
       <c r="R110" s="90"/>
       <c r="S110" s="90"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B111" s="93" t="s">
         <v>179</v>
       </c>
@@ -7464,7 +7464,7 @@
       <c r="R111" s="90"/>
       <c r="S111" s="90"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>176</v>
       </c>
@@ -7486,7 +7486,7 @@
       <c r="R112" s="90"/>
       <c r="S112" s="90"/>
     </row>
-    <row r="113" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="90"/>
       <c r="D113" s="90"/>
@@ -7506,7 +7506,7 @@
       <c r="R113" s="90"/>
       <c r="S113" s="90"/>
     </row>
-    <row r="114" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="90"/>
       <c r="D114" s="90"/>
@@ -7528,11 +7528,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{12EC5C37-4CC8-4221-8BDF-060A2DE6BEBF}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{B6AD5D6C-D0A7-484C-9008-20D517F3594A}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{2AF63C88-5351-4321-8585-9A1635EB02D3}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{40C5CC23-8F96-4E55-91E3-1B05E357A0EE}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{73C37931-5B38-4CB6-8650-2511BCDF5497}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{775268E2-7008-4261-BE0F-F68440943295}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{72A153CA-A0FC-46B0-8A83-667F946C4851}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{64DD2BC6-58F5-4407-8B23-414B0854D3DD}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{A9FAA73E-104D-4F7C-95A4-DECE305F4A63}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{52959FE2-F7E3-499E-9961-C6B8B42E8C20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab08.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{208135FA-D3B7-4736-A1D1-93E434AE148F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAAFEA01-47AE-4577-9185-1F95915D2046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3ACE25-1B43-4771-8228-1458D72E6D30}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{E71F6DA5-0340-40A9-A9CE-8E83606EE7C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>
@@ -583,12 +583,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -967,7 +966,7 @@
     <xf numFmtId="39" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -982,7 +981,7 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -997,7 +996,7 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1012,7 +1011,7 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1033,7 +1032,7 @@
     <xf numFmtId="39" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1048,7 +1047,7 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1057,13 +1056,13 @@
     <xf numFmtId="39" fontId="9" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1081,7 +1080,7 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1099,7 +1098,7 @@
     <xf numFmtId="39" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1114,7 +1113,7 @@
     <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1129,7 +1128,7 @@
     <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1153,7 +1152,7 @@
     <xf numFmtId="39" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1168,13 +1167,13 @@
     <xf numFmtId="39" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1188,8 +1187,8 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1505,7 +1504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005D81AA-06DF-4D24-9B41-743C57D74682}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38111A18-4D90-41DD-858F-BDAFF53C7DAB}">
   <dimension ref="A1:S114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1514,7 +1513,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="12.42578125" style="92" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="12.42578125" style="93" bestFit="1" customWidth="1"/>
     <col min="10" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1531,11 +1530,11 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="4"/>
+      <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -1571,25 +1570,25 @@
       <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="8" t="s">
@@ -1630,25 +1629,25 @@
       <c r="J3" s="15">
         <v>39.041649195994303</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <v>6.0962166416092796</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="15">
         <v>22.302886350682599</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="15">
         <v>2.19132727263016</v>
       </c>
       <c r="N3" s="15">
         <v>16.642962838675999</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="17">
         <v>7.4428118147202396</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="14">
         <v>56.707506268501497</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="15">
         <v>5.7175689214526999</v>
       </c>
       <c r="R3" s="15">
@@ -1692,22 +1691,22 @@
       <c r="K4" s="21">
         <v>11.048100477270401</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="21">
         <v>14.794431165687699</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="21">
         <v>4.92679786511464</v>
       </c>
       <c r="N4" s="21">
         <v>39.071971978803496</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="22">
         <v>5.6578613055322098</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="20">
         <v>17.593452708821498</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="21">
         <v>15.9516118491686</v>
       </c>
       <c r="R4" s="21">
@@ -1751,22 +1750,22 @@
       <c r="K5" s="26">
         <v>2.8246437375293398</v>
       </c>
-      <c r="L5" s="27">
+      <c r="L5" s="26">
         <v>15.8310583354053</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="26">
         <v>6.1018452201653002</v>
       </c>
       <c r="N5" s="26">
         <v>34.495068479827601</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="27">
         <v>29.282545758360602</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="25">
         <v>13.6490853287543</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="26">
         <v>24.067751923310901</v>
       </c>
       <c r="R5" s="26">
@@ -1810,22 +1809,22 @@
       <c r="K6" s="26">
         <v>2.9873590981356002</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="26">
         <v>9.1793205394597503</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="26">
         <v>4.8623852137492003</v>
       </c>
       <c r="N6" s="26">
         <v>44.162829024195901</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="27">
         <v>17.812062708193402</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="25">
         <v>29.9581895821633</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="26">
         <v>34.795106028825401</v>
       </c>
       <c r="R6" s="26">
@@ -1869,22 +1868,22 @@
       <c r="K7" s="26">
         <v>3.2732099178571099</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="26">
         <v>12.9800596991448</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="26">
         <v>10.5599370098699</v>
       </c>
       <c r="N7" s="26">
         <v>28.983474653499801</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="27">
         <v>11.4677270804717</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="25">
         <v>62.628048329839103</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="26">
         <v>8.02648211863543</v>
       </c>
       <c r="R7" s="26">
@@ -1928,22 +1927,22 @@
       <c r="K8" s="26">
         <v>1.4139982487854701</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="26">
         <v>10.8463570282821</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="26">
         <v>10.039537633062601</v>
       </c>
       <c r="N8" s="26">
         <v>24.144851644617699</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="27">
         <v>9.4430091317059901</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="25">
         <v>70.530061958543897</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="Q8" s="26">
         <v>9.0072854208879995</v>
       </c>
       <c r="R8" s="26">
@@ -1987,22 +1986,22 @@
       <c r="K9" s="26">
         <v>1.61842504371811</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="26">
         <v>13.9570240304822</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="26">
         <v>4.8169371723056598</v>
       </c>
       <c r="N9" s="26">
         <v>41.519251242379902</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="27">
         <v>12.1313314070114</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="25">
         <v>22.026945250406602</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="Q9" s="26">
         <v>16.505924497106601</v>
       </c>
       <c r="R9" s="26">
@@ -2046,22 +2045,22 @@
       <c r="K10" s="26">
         <v>2.4627415047768002</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="26">
         <v>13.565018986389299</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="26">
         <v>7.5830095936525197</v>
       </c>
       <c r="N10" s="26">
         <v>48.221499706558397</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="27">
         <v>13.6596830390619</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="25">
         <v>21.2776947559809</v>
       </c>
-      <c r="Q10" s="25">
+      <c r="Q10" s="26">
         <v>17.248737160017399</v>
       </c>
       <c r="R10" s="26">
@@ -2105,22 +2104,22 @@
       <c r="K11" s="21">
         <v>12.2465743027991</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="21">
         <v>21.099460196852199</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="21">
         <v>15.1958187677699</v>
       </c>
       <c r="N11" s="21">
         <v>22.839152971227001</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="27">
         <v>8.5146931050615393</v>
       </c>
-      <c r="P11" s="27">
+      <c r="P11" s="20">
         <v>57.788508447186402</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="21">
         <v>10.1860597922061</v>
       </c>
       <c r="R11" s="21">
@@ -2164,22 +2163,22 @@
       <c r="K12" s="31">
         <v>5.1961211544115198</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="31">
         <v>17.225185281831902</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M12" s="31">
         <v>6.7493775153808899</v>
       </c>
       <c r="N12" s="31">
         <v>23.007543368122899</v>
       </c>
-      <c r="O12" s="31">
+      <c r="O12" s="32">
         <v>23.244981187942901</v>
       </c>
-      <c r="P12" s="32">
+      <c r="P12" s="30">
         <v>53.622533557175998</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="Q12" s="31">
         <v>13.4872409509749</v>
       </c>
       <c r="R12" s="31">
@@ -2220,25 +2219,25 @@
       <c r="J13" s="37">
         <v>28.3048849445073</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="37">
         <v>3.97049646131032</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="37">
         <v>15.687716941148899</v>
       </c>
-      <c r="M13" s="36">
+      <c r="M13" s="37">
         <v>6.8389603949743503</v>
       </c>
       <c r="N13" s="37">
         <v>38.431749964902799</v>
       </c>
-      <c r="O13" s="38">
+      <c r="O13" s="39">
         <v>12.2806046535006</v>
       </c>
-      <c r="P13" s="39">
+      <c r="P13" s="36">
         <v>40.5782026187374</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="Q13" s="37">
         <v>15.499376866258601</v>
       </c>
       <c r="R13" s="37">
@@ -2279,25 +2278,25 @@
       <c r="J14" s="43">
         <v>15.100605712934</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="43">
         <v>3.8781596582617501</v>
       </c>
-      <c r="L14" s="44">
+      <c r="L14" s="43">
         <v>5.8031839227061202</v>
       </c>
-      <c r="M14" s="42">
+      <c r="M14" s="43">
         <v>4.3140127718480903</v>
       </c>
       <c r="N14" s="43">
         <v>34.629688273819497</v>
       </c>
-      <c r="O14" s="26">
+      <c r="O14" s="44">
         <v>13.887312773760399</v>
       </c>
-      <c r="P14" s="44">
+      <c r="P14" s="42">
         <v>85.313134186872603</v>
       </c>
-      <c r="Q14" s="42">
+      <c r="Q14" s="43">
         <v>3.1218109154075999</v>
       </c>
       <c r="R14" s="43">
@@ -2341,22 +2340,22 @@
       <c r="K15" s="26">
         <v>7.5139161978731899</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="26">
         <v>17.001965418055899</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="26">
         <v>13.334628335589301</v>
       </c>
       <c r="N15" s="26">
         <v>23.943738863651799</v>
       </c>
-      <c r="O15" s="26">
+      <c r="O15" s="27">
         <v>13.937320819439901</v>
       </c>
-      <c r="P15" s="27">
+      <c r="P15" s="25">
         <v>42.822212467489003</v>
       </c>
-      <c r="Q15" s="25">
+      <c r="Q15" s="26">
         <v>15.282068972648</v>
       </c>
       <c r="R15" s="26">
@@ -2400,22 +2399,22 @@
       <c r="K16" s="26">
         <v>1.65003066579042</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="26">
         <v>19.247767100367199</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="26">
         <v>2.2607393779443701</v>
       </c>
       <c r="N16" s="26">
         <v>23.367358303732502</v>
       </c>
-      <c r="O16" s="26">
+      <c r="O16" s="27">
         <v>19.334803174794299</v>
       </c>
-      <c r="P16" s="27">
+      <c r="P16" s="25">
         <v>71.207128506803599</v>
       </c>
-      <c r="Q16" s="25">
+      <c r="Q16" s="26">
         <v>6.2379322724505197</v>
       </c>
       <c r="R16" s="26">
@@ -2459,22 +2458,22 @@
       <c r="K17" s="16">
         <v>4.2758841917919304</v>
       </c>
-      <c r="L17" s="47">
+      <c r="L17" s="16">
         <v>7.61691741732528</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M17" s="16">
         <v>2.6933159393674</v>
       </c>
       <c r="N17" s="16">
         <v>11.012612635929999</v>
       </c>
-      <c r="O17" s="16">
+      <c r="O17" s="47">
         <v>14.6568043787378</v>
       </c>
-      <c r="P17" s="47">
+      <c r="P17" s="46">
         <v>69.549438681250805</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q17" s="16">
         <v>9.5342953031281592</v>
       </c>
       <c r="R17" s="16">
@@ -2518,22 +2517,22 @@
       <c r="K18" s="16">
         <v>2.04064868204066</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="16">
         <v>14.381186219275399</v>
       </c>
-      <c r="M18" s="46">
+      <c r="M18" s="16">
         <v>6.6126502300891596</v>
       </c>
       <c r="N18" s="16">
         <v>26.082131489140998</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="47">
         <v>10.7368003071141</v>
       </c>
-      <c r="P18" s="47">
+      <c r="P18" s="46">
         <v>32.803433143530903</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="16">
         <v>22.128992814181299</v>
       </c>
       <c r="R18" s="16">
@@ -2577,22 +2576,22 @@
       <c r="K19" s="21">
         <v>0.98783152107827998</v>
       </c>
-      <c r="L19" s="27">
+      <c r="L19" s="21">
         <v>11.6100927600398</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="21">
         <v>8.2781632576963506</v>
       </c>
       <c r="N19" s="21">
         <v>12.421477588235</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="27">
         <v>17.188014290929299</v>
       </c>
-      <c r="P19" s="27">
+      <c r="P19" s="20">
         <v>56.635434688090598</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="Q19" s="21">
         <v>10.064581182462</v>
       </c>
       <c r="R19" s="21">
@@ -2636,22 +2635,22 @@
       <c r="K20" s="16">
         <v>3.4699656658243101</v>
       </c>
-      <c r="L20" s="47">
+      <c r="L20" s="16">
         <v>8.4717803709949298</v>
       </c>
-      <c r="M20" s="46">
+      <c r="M20" s="16">
         <v>6.76663325378669</v>
       </c>
       <c r="N20" s="16">
         <v>29.4280508615972</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O20" s="47">
         <v>22.922519239015902</v>
       </c>
-      <c r="P20" s="47">
+      <c r="P20" s="46">
         <v>55.986219485121801</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="16">
         <v>13.1118392382894</v>
       </c>
       <c r="R20" s="16">
@@ -2695,22 +2694,22 @@
       <c r="K21" s="16">
         <v>3.3870727960488298</v>
       </c>
-      <c r="L21" s="47">
+      <c r="L21" s="16">
         <v>4.5251821140091497</v>
       </c>
-      <c r="M21" s="46">
+      <c r="M21" s="16">
         <v>11.505806174532101</v>
       </c>
       <c r="N21" s="16">
         <v>22.288937709583902</v>
       </c>
-      <c r="O21" s="16">
+      <c r="O21" s="47">
         <v>7.7619385850443496</v>
       </c>
-      <c r="P21" s="47">
+      <c r="P21" s="46">
         <v>29.920929708524099</v>
       </c>
-      <c r="Q21" s="46">
+      <c r="Q21" s="16">
         <v>16.082797547915899</v>
       </c>
       <c r="R21" s="16">
@@ -2754,22 +2753,22 @@
       <c r="K22" s="31">
         <v>5.4270293732187502</v>
       </c>
-      <c r="L22" s="32">
+      <c r="L22" s="31">
         <v>30.428658015163599</v>
       </c>
-      <c r="M22" s="30">
+      <c r="M22" s="31">
         <v>11.2398958989476</v>
       </c>
       <c r="N22" s="31">
         <v>31.4851473239722</v>
       </c>
-      <c r="O22" s="31">
+      <c r="O22" s="32">
         <v>5.9390769330344702</v>
       </c>
-      <c r="P22" s="32">
+      <c r="P22" s="30">
         <v>17.555142523479802</v>
       </c>
-      <c r="Q22" s="30">
+      <c r="Q22" s="31">
         <v>20.045396976824499</v>
       </c>
       <c r="R22" s="31">
@@ -2810,25 +2809,25 @@
       <c r="J23" s="37">
         <v>40.052448985174898</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="37">
         <v>3.51466675507266</v>
       </c>
-      <c r="L23" s="39">
+      <c r="L23" s="37">
         <v>11.724242338165899</v>
       </c>
-      <c r="M23" s="36">
+      <c r="M23" s="37">
         <v>8.9044932632713305</v>
       </c>
       <c r="N23" s="37">
         <v>19.0708629791581</v>
       </c>
-      <c r="O23" s="38">
+      <c r="O23" s="39">
         <v>14.8985608633803</v>
       </c>
-      <c r="P23" s="39">
+      <c r="P23" s="36">
         <v>51.310341487907003</v>
       </c>
-      <c r="Q23" s="36">
+      <c r="Q23" s="37">
         <v>12.8455239137008</v>
       </c>
       <c r="R23" s="37">
@@ -2869,25 +2868,25 @@
       <c r="J24" s="43">
         <v>8.4495506353490697</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K24" s="43">
         <v>1.03481165607389</v>
       </c>
-      <c r="L24" s="44">
+      <c r="L24" s="43">
         <v>19.962343239758201</v>
       </c>
-      <c r="M24" s="42">
+      <c r="M24" s="43">
         <v>6.0954112022399496</v>
       </c>
       <c r="N24" s="43">
         <v>26.425135985723401</v>
       </c>
-      <c r="O24" s="26">
+      <c r="O24" s="44">
         <v>7.3109283830395801</v>
       </c>
-      <c r="P24" s="44">
+      <c r="P24" s="42">
         <v>35.212705561306997</v>
       </c>
-      <c r="Q24" s="42">
+      <c r="Q24" s="43">
         <v>14.695456779050501</v>
       </c>
       <c r="R24" s="43">
@@ -2931,22 +2930,22 @@
       <c r="K25" s="26">
         <v>4.1556584091307602</v>
       </c>
-      <c r="L25" s="27">
+      <c r="L25" s="26">
         <v>32.096170887039499</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25" s="26">
         <v>24.6525907072152</v>
       </c>
       <c r="N25" s="26">
         <v>29.893345268588799</v>
       </c>
-      <c r="O25" s="26">
+      <c r="O25" s="27">
         <v>3.03945393506481</v>
       </c>
-      <c r="P25" s="27">
+      <c r="P25" s="25">
         <v>1.20934689495134</v>
       </c>
-      <c r="Q25" s="25">
+      <c r="Q25" s="26">
         <v>5.9578373760347301</v>
       </c>
       <c r="R25" s="26">
@@ -2990,22 +2989,22 @@
       <c r="K26" s="26">
         <v>15.725956892746799</v>
       </c>
-      <c r="L26" s="27">
+      <c r="L26" s="26">
         <v>11.39211004783</v>
       </c>
-      <c r="M26" s="25">
+      <c r="M26" s="26">
         <v>12.289339085161</v>
       </c>
       <c r="N26" s="26">
         <v>27.733732053289302</v>
       </c>
-      <c r="O26" s="26">
+      <c r="O26" s="27">
         <v>6.0288910839496301</v>
       </c>
-      <c r="P26" s="27">
+      <c r="P26" s="25">
         <v>64.448390643190194</v>
       </c>
-      <c r="Q26" s="25">
+      <c r="Q26" s="26">
         <v>8.9697055149185996</v>
       </c>
       <c r="R26" s="26">
@@ -3049,22 +3048,22 @@
       <c r="K27" s="26">
         <v>17.899011366925698</v>
       </c>
-      <c r="L27" s="27">
+      <c r="L27" s="26">
         <v>15.6103872042981</v>
       </c>
-      <c r="M27" s="25">
+      <c r="M27" s="26">
         <v>4.21879188861194</v>
       </c>
       <c r="N27" s="26">
         <v>17.889113543586902</v>
       </c>
-      <c r="O27" s="26">
+      <c r="O27" s="27">
         <v>4.3756400206583503</v>
       </c>
-      <c r="P27" s="27">
+      <c r="P27" s="25">
         <v>63.466008560117103</v>
       </c>
-      <c r="Q27" s="25">
+      <c r="Q27" s="26">
         <v>6.3072984272691697</v>
       </c>
       <c r="R27" s="26">
@@ -3108,22 +3107,22 @@
       <c r="K28" s="26">
         <v>7.5996590131365904</v>
       </c>
-      <c r="L28" s="27">
+      <c r="L28" s="26">
         <v>9.4775176077578305</v>
       </c>
-      <c r="M28" s="25">
+      <c r="M28" s="26">
         <v>15.7117797967733</v>
       </c>
       <c r="N28" s="26">
         <v>33.458004431215798</v>
       </c>
-      <c r="O28" s="26">
+      <c r="O28" s="27">
         <v>8.3368280078546402</v>
       </c>
-      <c r="P28" s="27">
+      <c r="P28" s="25">
         <v>33.262383270889103</v>
       </c>
-      <c r="Q28" s="25">
+      <c r="Q28" s="26">
         <v>15.5605123226331</v>
       </c>
       <c r="R28" s="26">
@@ -3167,22 +3166,22 @@
       <c r="K29" s="26">
         <v>7.9648044996284497</v>
       </c>
-      <c r="L29" s="27">
+      <c r="L29" s="26">
         <v>12.9143035276056</v>
       </c>
-      <c r="M29" s="25">
+      <c r="M29" s="26">
         <v>8.5622237850732308</v>
       </c>
       <c r="N29" s="26">
         <v>28.956329514914799</v>
       </c>
-      <c r="O29" s="26">
+      <c r="O29" s="27">
         <v>10.894518982133301</v>
       </c>
-      <c r="P29" s="27">
+      <c r="P29" s="25">
         <v>71.189585305974603</v>
       </c>
-      <c r="Q29" s="25">
+      <c r="Q29" s="26">
         <v>9.6071838288003608</v>
       </c>
       <c r="R29" s="26">
@@ -3226,22 +3225,22 @@
       <c r="K30" s="26">
         <v>5.1961196961497604</v>
       </c>
-      <c r="L30" s="27">
+      <c r="L30" s="26">
         <v>17.867636742629202</v>
       </c>
-      <c r="M30" s="25">
+      <c r="M30" s="26">
         <v>9.5223778886817794</v>
       </c>
       <c r="N30" s="26">
         <v>47.755196119696201</v>
       </c>
-      <c r="O30" s="26">
+      <c r="O30" s="27">
         <v>13.8087507265548</v>
       </c>
-      <c r="P30" s="27">
+      <c r="P30" s="25">
         <v>5.3453911152044098</v>
       </c>
-      <c r="Q30" s="25">
+      <c r="Q30" s="26">
         <v>21.814488102737499</v>
       </c>
       <c r="R30" s="26">
@@ -3285,22 +3284,22 @@
       <c r="K31" s="26">
         <v>8.1700118063754505</v>
       </c>
-      <c r="L31" s="27">
+      <c r="L31" s="26">
         <v>12.758756395120001</v>
       </c>
-      <c r="M31" s="25">
+      <c r="M31" s="26">
         <v>7.9260133805588397</v>
       </c>
       <c r="N31" s="26">
         <v>29.508067689885898</v>
       </c>
-      <c r="O31" s="26">
+      <c r="O31" s="27">
         <v>10.696576151121601</v>
       </c>
-      <c r="P31" s="27">
+      <c r="P31" s="25">
         <v>56.2465530072676</v>
       </c>
-      <c r="Q31" s="25">
+      <c r="Q31" s="26">
         <v>14.361118443450399</v>
       </c>
       <c r="R31" s="26">
@@ -3344,22 +3343,22 @@
       <c r="K32" s="26">
         <v>4.1879172368039201</v>
       </c>
-      <c r="L32" s="27">
+      <c r="L32" s="26">
         <v>23.381846830036899</v>
       </c>
-      <c r="M32" s="25">
+      <c r="M32" s="26">
         <v>8.8029191027076408</v>
       </c>
       <c r="N32" s="26">
         <v>51.192105154040703</v>
       </c>
-      <c r="O32" s="26">
+      <c r="O32" s="27">
         <v>5.8672305842351902</v>
       </c>
-      <c r="P32" s="27" t="s">
+      <c r="P32" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="Q32" s="25" t="s">
+      <c r="Q32" s="26" t="s">
         <v>67</v>
       </c>
       <c r="R32" s="26" t="s">
@@ -3403,22 +3402,22 @@
       <c r="K33" s="26">
         <v>4.1947945744789497</v>
       </c>
-      <c r="L33" s="27">
+      <c r="L33" s="26">
         <v>10.629517124292899</v>
       </c>
-      <c r="M33" s="25">
+      <c r="M33" s="26">
         <v>9.3829396740870905</v>
       </c>
       <c r="N33" s="26">
         <v>12.453558183038499</v>
       </c>
-      <c r="O33" s="26">
+      <c r="O33" s="27">
         <v>2.48214220787824</v>
       </c>
-      <c r="P33" s="27">
+      <c r="P33" s="25">
         <v>26.4979386194074</v>
       </c>
-      <c r="Q33" s="25">
+      <c r="Q33" s="26">
         <v>17.733587163985099</v>
       </c>
       <c r="R33" s="26">
@@ -3462,22 +3461,22 @@
       <c r="K34" s="16">
         <v>2.2784246280045601</v>
       </c>
-      <c r="L34" s="47">
+      <c r="L34" s="16">
         <v>6.0526908054025403</v>
       </c>
-      <c r="M34" s="46">
+      <c r="M34" s="16">
         <v>8.6859300659557306</v>
       </c>
       <c r="N34" s="16">
         <v>19.915252738527499</v>
       </c>
-      <c r="O34" s="16">
+      <c r="O34" s="47">
         <v>1.7819520311438699</v>
       </c>
-      <c r="P34" s="47">
+      <c r="P34" s="46">
         <v>60.783296168660101</v>
       </c>
-      <c r="Q34" s="46">
+      <c r="Q34" s="16">
         <v>13.628134240197999</v>
       </c>
       <c r="R34" s="16">
@@ -3521,22 +3520,22 @@
       <c r="K35" s="26">
         <v>3.4247954592191698</v>
       </c>
-      <c r="L35" s="27">
+      <c r="L35" s="26">
         <v>17.047687129853902</v>
       </c>
-      <c r="M35" s="25">
+      <c r="M35" s="26">
         <v>8.7934255270736799</v>
       </c>
       <c r="N35" s="26">
         <v>32.2546461454153</v>
       </c>
-      <c r="O35" s="26">
+      <c r="O35" s="27">
         <v>8.8091897525930491</v>
       </c>
-      <c r="P35" s="27">
+      <c r="P35" s="25">
         <v>40.936807040024298</v>
       </c>
-      <c r="Q35" s="25">
+      <c r="Q35" s="26">
         <v>14.5126698899894</v>
       </c>
       <c r="R35" s="26">
@@ -3580,22 +3579,22 @@
       <c r="K36" s="26">
         <v>15.217737031015799</v>
       </c>
-      <c r="L36" s="27">
+      <c r="L36" s="26">
         <v>9.7922040751739203</v>
       </c>
-      <c r="M36" s="25">
+      <c r="M36" s="26">
         <v>8.8896991503024196</v>
       </c>
       <c r="N36" s="26">
         <v>19.5021289281724</v>
       </c>
-      <c r="O36" s="26">
+      <c r="O36" s="27">
         <v>7.7183298087105596</v>
       </c>
-      <c r="P36" s="27">
+      <c r="P36" s="25">
         <v>65.972819464160906</v>
       </c>
-      <c r="Q36" s="25">
+      <c r="Q36" s="26">
         <v>8.3480557176917998</v>
       </c>
       <c r="R36" s="26">
@@ -3639,22 +3638,22 @@
       <c r="K37" s="31">
         <v>5.7265340253472301</v>
       </c>
-      <c r="L37" s="32">
+      <c r="L37" s="31">
         <v>11.64517153904</v>
       </c>
-      <c r="M37" s="30">
+      <c r="M37" s="31">
         <v>5.3075697763562504</v>
       </c>
       <c r="N37" s="31">
         <v>27.778052759345702</v>
       </c>
-      <c r="O37" s="31">
+      <c r="O37" s="32">
         <v>17.0729257121729</v>
       </c>
-      <c r="P37" s="32">
+      <c r="P37" s="30">
         <v>66.666064600730607</v>
       </c>
-      <c r="Q37" s="30">
+      <c r="Q37" s="31">
         <v>7.12706176594439</v>
       </c>
       <c r="R37" s="31">
@@ -3695,25 +3694,25 @@
       <c r="J38" s="37">
         <v>13.2648081026167</v>
       </c>
-      <c r="K38" s="38">
+      <c r="K38" s="37">
         <v>10.823703916629301</v>
       </c>
-      <c r="L38" s="39">
+      <c r="L38" s="37">
         <v>12.7340597636151</v>
       </c>
-      <c r="M38" s="36">
+      <c r="M38" s="37">
         <v>9.0773360148248106</v>
       </c>
       <c r="N38" s="37">
         <v>25.9232326036575</v>
       </c>
-      <c r="O38" s="38">
+      <c r="O38" s="39">
         <v>8.1569094176097501</v>
       </c>
-      <c r="P38" s="39">
+      <c r="P38" s="36">
         <v>45.479791557837302</v>
       </c>
-      <c r="Q38" s="36">
+      <c r="Q38" s="37">
         <v>12.201777659438701</v>
       </c>
       <c r="R38" s="37">
@@ -3754,25 +3753,25 @@
       <c r="J39" s="15">
         <v>25.8392589465032</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K39" s="15">
         <v>12.198300670023601</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="15">
         <v>13.875747025461401</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M39" s="15">
         <v>10.872357697178</v>
       </c>
       <c r="N39" s="15">
         <v>23.9418655254381</v>
       </c>
-      <c r="O39" s="16">
+      <c r="O39" s="17">
         <v>4.6632612454969102</v>
       </c>
-      <c r="P39" s="17">
+      <c r="P39" s="14">
         <v>10.033098415205099</v>
       </c>
-      <c r="Q39" s="14">
+      <c r="Q39" s="15">
         <v>30.942914400860001</v>
       </c>
       <c r="R39" s="15">
@@ -3816,22 +3815,22 @@
       <c r="K40" s="26">
         <v>7.6289256046513403</v>
       </c>
-      <c r="L40" s="27">
+      <c r="L40" s="26">
         <v>15.4851447366468</v>
       </c>
-      <c r="M40" s="25">
+      <c r="M40" s="26">
         <v>7.9771963705831297</v>
       </c>
       <c r="N40" s="26">
         <v>30.624307719437901</v>
       </c>
-      <c r="O40" s="26">
+      <c r="O40" s="27">
         <v>16.7958758400721</v>
       </c>
-      <c r="P40" s="27">
+      <c r="P40" s="25">
         <v>19.289170905522202</v>
       </c>
-      <c r="Q40" s="25">
+      <c r="Q40" s="26">
         <v>28.355091125473699</v>
       </c>
       <c r="R40" s="26">
@@ -3875,22 +3874,22 @@
       <c r="K41" s="16">
         <v>3.1339020263521902</v>
       </c>
-      <c r="L41" s="49">
+      <c r="L41" s="16">
         <v>6.9650564626388203</v>
       </c>
-      <c r="M41" s="46">
+      <c r="M41" s="16">
         <v>3.38048128958114</v>
       </c>
       <c r="N41" s="16">
         <v>42.174557319929001</v>
       </c>
-      <c r="O41" s="16">
+      <c r="O41" s="49">
         <v>2.6588306672782802</v>
       </c>
-      <c r="P41" s="49">
+      <c r="P41" s="46">
         <v>9.5007741998393893</v>
       </c>
-      <c r="Q41" s="46">
+      <c r="Q41" s="16">
         <v>22.786637473289701</v>
       </c>
       <c r="R41" s="16">
@@ -3934,22 +3933,22 @@
       <c r="K42" s="16">
         <v>4.5087604059144502</v>
       </c>
-      <c r="L42" s="49">
+      <c r="L42" s="16">
         <v>12.923844122417799</v>
       </c>
-      <c r="M42" s="46">
+      <c r="M42" s="16">
         <v>5.5685885491373703</v>
       </c>
       <c r="N42" s="16">
         <v>27.639181200048299</v>
       </c>
-      <c r="O42" s="16">
+      <c r="O42" s="49">
         <v>5.4305132914192296</v>
       </c>
-      <c r="P42" s="49">
+      <c r="P42" s="46">
         <v>33.699290386347499</v>
       </c>
-      <c r="Q42" s="46">
+      <c r="Q42" s="16">
         <v>14.628436522506901</v>
       </c>
       <c r="R42" s="16">
@@ -3993,22 +3992,22 @@
       <c r="K43" s="26">
         <v>6.0569750846416097</v>
       </c>
-      <c r="L43" s="27">
+      <c r="L43" s="26">
         <v>16.055676108667701</v>
       </c>
-      <c r="M43" s="25">
+      <c r="M43" s="26">
         <v>5.8095867757584498</v>
       </c>
       <c r="N43" s="26">
         <v>38.473336852781102</v>
       </c>
-      <c r="O43" s="26">
+      <c r="O43" s="27">
         <v>16.632471401711701</v>
       </c>
-      <c r="P43" s="27">
+      <c r="P43" s="25">
         <v>31.233778104734402</v>
       </c>
-      <c r="Q43" s="25">
+      <c r="Q43" s="26">
         <v>23.9818265265015</v>
       </c>
       <c r="R43" s="26">
@@ -4052,22 +4051,22 @@
       <c r="K44" s="31">
         <v>3.8366081723021401</v>
       </c>
-      <c r="L44" s="32">
+      <c r="L44" s="31">
         <v>16.384736998147702</v>
       </c>
-      <c r="M44" s="30">
+      <c r="M44" s="31">
         <v>7.9647866823425</v>
       </c>
       <c r="N44" s="31">
         <v>40.321909347883199</v>
       </c>
-      <c r="O44" s="31">
+      <c r="O44" s="32">
         <v>15.919281801710399</v>
       </c>
-      <c r="P44" s="32">
+      <c r="P44" s="30">
         <v>14.388505859679301</v>
       </c>
-      <c r="Q44" s="30">
+      <c r="Q44" s="31">
         <v>33.426387918333901</v>
       </c>
       <c r="R44" s="31">
@@ -4108,25 +4107,25 @@
       <c r="J45" s="37">
         <v>26.348419247769598</v>
       </c>
-      <c r="K45" s="50">
+      <c r="K45" s="37">
         <v>7.9659140969018001</v>
       </c>
-      <c r="L45" s="39">
+      <c r="L45" s="37">
         <v>14.738062900503801</v>
       </c>
-      <c r="M45" s="36">
+      <c r="M45" s="37">
         <v>8.0433670657485905</v>
       </c>
       <c r="N45" s="37">
         <v>31.368731648792199</v>
       </c>
-      <c r="O45" s="50">
+      <c r="O45" s="39">
         <v>12.9553164538606</v>
       </c>
-      <c r="P45" s="39">
+      <c r="P45" s="36">
         <v>19.690769645221302</v>
       </c>
-      <c r="Q45" s="36">
+      <c r="Q45" s="37">
         <v>25.6868823278276</v>
       </c>
       <c r="R45" s="37">
@@ -4167,25 +4166,25 @@
       <c r="J46" s="43">
         <v>12.213779180066799</v>
       </c>
-      <c r="K46" s="26">
+      <c r="K46" s="43">
         <v>6.5274071969889098</v>
       </c>
-      <c r="L46" s="44">
+      <c r="L46" s="43">
         <v>15.9340157656058</v>
       </c>
-      <c r="M46" s="42">
+      <c r="M46" s="43">
         <v>11.681157361847999</v>
       </c>
       <c r="N46" s="43">
         <v>24.024794813785299</v>
       </c>
-      <c r="O46" s="26">
+      <c r="O46" s="44">
         <v>10.8178027574592</v>
       </c>
-      <c r="P46" s="44">
+      <c r="P46" s="42">
         <v>29.0592939876807</v>
       </c>
-      <c r="Q46" s="42">
+      <c r="Q46" s="43">
         <v>22.226052453378401</v>
       </c>
       <c r="R46" s="43">
@@ -4229,22 +4228,22 @@
       <c r="K47" s="26">
         <v>4.1580938059186199</v>
       </c>
-      <c r="L47" s="27">
+      <c r="L47" s="26">
         <v>8.2147150192646095</v>
       </c>
-      <c r="M47" s="25">
+      <c r="M47" s="26">
         <v>4.2124068055689099</v>
       </c>
       <c r="N47" s="26">
         <v>30.9696260191545</v>
       </c>
-      <c r="O47" s="26">
+      <c r="O47" s="27">
         <v>11.690237852348099</v>
       </c>
-      <c r="P47" s="27">
+      <c r="P47" s="25">
         <v>74.580139353839996</v>
       </c>
-      <c r="Q47" s="25">
+      <c r="Q47" s="26">
         <v>6.9464648057186604</v>
       </c>
       <c r="R47" s="26">
@@ -4288,22 +4287,22 @@
       <c r="K48" s="16">
         <v>11.3778782387503</v>
       </c>
-      <c r="L48" s="49">
+      <c r="L48" s="16">
         <v>22.105226542376101</v>
       </c>
-      <c r="M48" s="46">
+      <c r="M48" s="16">
         <v>11.689000562903001</v>
       </c>
       <c r="N48" s="16">
         <v>42.512243494897099</v>
       </c>
-      <c r="O48" s="16">
+      <c r="O48" s="49">
         <v>5.3890062696057601</v>
       </c>
-      <c r="P48" s="49">
+      <c r="P48" s="46">
         <v>10.537831423935099</v>
       </c>
-      <c r="Q48" s="46">
+      <c r="Q48" s="16">
         <v>21.950851066940199</v>
       </c>
       <c r="R48" s="16">
@@ -4347,22 +4346,22 @@
       <c r="K49" s="26">
         <v>5.7557695371319202</v>
       </c>
-      <c r="L49" s="27">
+      <c r="L49" s="26">
         <v>14.5580675341649</v>
       </c>
-      <c r="M49" s="25">
+      <c r="M49" s="26">
         <v>11.284623640225</v>
       </c>
       <c r="N49" s="26">
         <v>32.109234543129602</v>
       </c>
-      <c r="O49" s="26">
+      <c r="O49" s="27">
         <v>14.082657039713601</v>
       </c>
-      <c r="P49" s="27">
+      <c r="P49" s="25">
         <v>46.018206160217602</v>
       </c>
-      <c r="Q49" s="25">
+      <c r="Q49" s="26">
         <v>10.500450076374801</v>
       </c>
       <c r="R49" s="26">
@@ -4406,22 +4405,22 @@
       <c r="K50" s="26">
         <v>12.178630345513501</v>
       </c>
-      <c r="L50" s="27">
+      <c r="L50" s="26">
         <v>36.927764070487399</v>
       </c>
-      <c r="M50" s="25">
+      <c r="M50" s="26">
         <v>6.9259501003900397</v>
       </c>
       <c r="N50" s="26">
         <v>14.680778846758299</v>
       </c>
-      <c r="O50" s="26">
+      <c r="O50" s="27">
         <v>2.9977007235727702</v>
       </c>
-      <c r="P50" s="27">
+      <c r="P50" s="25">
         <v>48.183067360955398</v>
       </c>
-      <c r="Q50" s="25">
+      <c r="Q50" s="26">
         <v>7.4528793895896204</v>
       </c>
       <c r="R50" s="26">
@@ -4465,22 +4464,22 @@
       <c r="K51" s="21">
         <v>6.2306553608410802</v>
       </c>
-      <c r="L51" s="22">
+      <c r="L51" s="21">
         <v>19.510809333189101</v>
       </c>
-      <c r="M51" s="20">
+      <c r="M51" s="21">
         <v>10.002858733233699</v>
       </c>
       <c r="N51" s="21">
         <v>15.3932815921103</v>
       </c>
-      <c r="O51" s="21">
+      <c r="O51" s="22">
         <v>12.354582918983001</v>
       </c>
-      <c r="P51" s="22">
+      <c r="P51" s="20">
         <v>40.343506635831503</v>
       </c>
-      <c r="Q51" s="20">
+      <c r="Q51" s="21">
         <v>18.7708522818548</v>
       </c>
       <c r="R51" s="21">
@@ -4524,22 +4523,22 @@
       <c r="K52" s="26">
         <v>1.1316645749735299</v>
       </c>
-      <c r="L52" s="27">
+      <c r="L52" s="26">
         <v>18.904012844877201</v>
       </c>
-      <c r="M52" s="25">
+      <c r="M52" s="26">
         <v>5.0031025635425399</v>
       </c>
       <c r="N52" s="26">
         <v>15.711368000347001</v>
       </c>
-      <c r="O52" s="26">
+      <c r="O52" s="27">
         <v>12.297439203906</v>
       </c>
-      <c r="P52" s="27">
+      <c r="P52" s="25">
         <v>60.879831210956098</v>
       </c>
-      <c r="Q52" s="25">
+      <c r="Q52" s="26">
         <v>7.1469062781649502</v>
       </c>
       <c r="R52" s="26">
@@ -4583,22 +4582,22 @@
       <c r="K53" s="26">
         <v>1.76455977602231</v>
       </c>
-      <c r="L53" s="27">
+      <c r="L53" s="26">
         <v>26.806378164890699</v>
       </c>
-      <c r="M53" s="25">
+      <c r="M53" s="26">
         <v>6.7297206512712897</v>
       </c>
       <c r="N53" s="26">
         <v>20.145191546831001</v>
       </c>
-      <c r="O53" s="26">
+      <c r="O53" s="27">
         <v>11.165857946732601</v>
       </c>
-      <c r="P53" s="27">
+      <c r="P53" s="25">
         <v>50.9119959622249</v>
       </c>
-      <c r="Q53" s="25">
+      <c r="Q53" s="26">
         <v>10.5017117977221</v>
       </c>
       <c r="R53" s="26">
@@ -4642,22 +4641,22 @@
       <c r="K54" s="26">
         <v>1.80980144230244</v>
       </c>
-      <c r="L54" s="27">
+      <c r="L54" s="26">
         <v>4.8811078467042002</v>
       </c>
-      <c r="M54" s="25">
+      <c r="M54" s="26">
         <v>5.3603758753895798</v>
       </c>
       <c r="N54" s="26">
         <v>7.2185360055495504</v>
       </c>
-      <c r="O54" s="26">
+      <c r="O54" s="27">
         <v>4.28844256998745</v>
       </c>
-      <c r="P54" s="27">
+      <c r="P54" s="25">
         <v>39.9314682312408</v>
       </c>
-      <c r="Q54" s="25">
+      <c r="Q54" s="26">
         <v>8.2559226002524309</v>
       </c>
       <c r="R54" s="26">
@@ -4701,22 +4700,22 @@
       <c r="K55" s="26">
         <v>4.22255624806205</v>
       </c>
-      <c r="L55" s="27">
+      <c r="L55" s="26">
         <v>11.440539474035299</v>
       </c>
-      <c r="M55" s="25">
+      <c r="M55" s="26">
         <v>5.6933011563958003</v>
       </c>
       <c r="N55" s="26">
         <v>22.3105696101847</v>
       </c>
-      <c r="O55" s="26">
+      <c r="O55" s="27">
         <v>16.753257252438399</v>
       </c>
-      <c r="P55" s="27">
+      <c r="P55" s="25">
         <v>68.246658402500799</v>
       </c>
-      <c r="Q55" s="25">
+      <c r="Q55" s="26">
         <v>9.9065026409399604</v>
       </c>
       <c r="R55" s="26">
@@ -4760,22 +4759,22 @@
       <c r="K56" s="26">
         <v>4.6972222214650001</v>
       </c>
-      <c r="L56" s="27">
+      <c r="L56" s="26">
         <v>14.306210179942299</v>
       </c>
-      <c r="M56" s="25">
+      <c r="M56" s="26">
         <v>5.0272313301421301</v>
       </c>
       <c r="N56" s="26">
         <v>19.443571581080398</v>
       </c>
-      <c r="O56" s="26">
+      <c r="O56" s="27">
         <v>7.8954284358250399</v>
       </c>
-      <c r="P56" s="27">
+      <c r="P56" s="25">
         <v>71.283289380826801</v>
       </c>
-      <c r="Q56" s="25">
+      <c r="Q56" s="26">
         <v>7.3320532468602098</v>
       </c>
       <c r="R56" s="26">
@@ -4819,22 +4818,22 @@
       <c r="K57" s="26">
         <v>9.3795421393571594</v>
       </c>
-      <c r="L57" s="27">
+      <c r="L57" s="26">
         <v>14.2310038680278</v>
       </c>
-      <c r="M57" s="25">
+      <c r="M57" s="26">
         <v>12.763904527839401</v>
       </c>
       <c r="N57" s="26">
         <v>17.709998659796199</v>
       </c>
-      <c r="O57" s="26">
+      <c r="O57" s="27">
         <v>13.8000716601865</v>
       </c>
-      <c r="P57" s="27">
+      <c r="P57" s="25">
         <v>38.553613499711702</v>
       </c>
-      <c r="Q57" s="25">
+      <c r="Q57" s="26">
         <v>14.4274072642744</v>
       </c>
       <c r="R57" s="26">
@@ -4878,22 +4877,22 @@
       <c r="K58" s="26">
         <v>2.4097572742593698</v>
       </c>
-      <c r="L58" s="27">
+      <c r="L58" s="26">
         <v>16.3334377477229</v>
       </c>
-      <c r="M58" s="25">
+      <c r="M58" s="26">
         <v>7.0400686964039396</v>
       </c>
       <c r="N58" s="26">
         <v>33.125079914494599</v>
       </c>
-      <c r="O58" s="26">
+      <c r="O58" s="27">
         <v>15.8580700942384</v>
       </c>
-      <c r="P58" s="27">
+      <c r="P58" s="25">
         <v>22.235192918276098</v>
       </c>
-      <c r="Q58" s="25">
+      <c r="Q58" s="26">
         <v>22.392339482975999</v>
       </c>
       <c r="R58" s="26">
@@ -4937,22 +4936,22 @@
       <c r="K59" s="26">
         <v>0.73942964846176995</v>
       </c>
-      <c r="L59" s="27">
+      <c r="L59" s="26">
         <v>6.3384924530443598</v>
       </c>
-      <c r="M59" s="25">
+      <c r="M59" s="26">
         <v>2.8561181605604302</v>
       </c>
       <c r="N59" s="26">
         <v>23.944922891368499</v>
       </c>
-      <c r="O59" s="26">
+      <c r="O59" s="27">
         <v>2.0556056206002302</v>
       </c>
-      <c r="P59" s="27">
+      <c r="P59" s="25">
         <v>44.0780166223607</v>
       </c>
-      <c r="Q59" s="25">
+      <c r="Q59" s="26">
         <v>11.851796681639</v>
       </c>
       <c r="R59" s="26">
@@ -4996,22 +4995,22 @@
       <c r="K60" s="54">
         <v>2.7070597205296498</v>
       </c>
-      <c r="L60" s="55">
+      <c r="L60" s="54">
         <v>8.3986099331286201</v>
       </c>
-      <c r="M60" s="53">
+      <c r="M60" s="54">
         <v>14.5316761188373</v>
       </c>
       <c r="N60" s="54">
         <v>33.801783665803299</v>
       </c>
-      <c r="O60" s="54">
+      <c r="O60" s="55">
         <v>14.6169080933069</v>
       </c>
-      <c r="P60" s="55">
+      <c r="P60" s="53">
         <v>31.4288356289128</v>
       </c>
-      <c r="Q60" s="53">
+      <c r="Q60" s="54">
         <v>19.973405171716699</v>
       </c>
       <c r="R60" s="54">
@@ -5050,25 +5049,25 @@
       <c r="J61" s="37">
         <v>21.910812824314998</v>
       </c>
-      <c r="K61" s="50">
+      <c r="K61" s="37">
         <v>7.7557114800067701</v>
       </c>
-      <c r="L61" s="39">
+      <c r="L61" s="37">
         <v>14.767150088403</v>
       </c>
-      <c r="M61" s="36">
+      <c r="M61" s="37">
         <v>11.326143114653</v>
       </c>
       <c r="N61" s="37">
         <v>20.050836626664399</v>
       </c>
-      <c r="O61" s="50">
+      <c r="O61" s="39">
         <v>13.41591453357</v>
       </c>
-      <c r="P61" s="39">
+      <c r="P61" s="36">
         <v>45.084729785298101</v>
       </c>
-      <c r="Q61" s="36">
+      <c r="Q61" s="37">
         <v>13.309039682560099</v>
       </c>
       <c r="R61" s="37">
@@ -5110,22 +5109,22 @@
       <c r="K62" s="60">
         <v>7.2113603581334198</v>
       </c>
-      <c r="L62" s="61">
+      <c r="L62" s="60">
         <v>14.4457673023451</v>
       </c>
-      <c r="M62" s="59">
+      <c r="M62" s="60">
         <v>8.882284982362</v>
       </c>
       <c r="N62" s="60">
         <v>28.2283667936527</v>
       </c>
-      <c r="O62" s="60">
+      <c r="O62" s="61">
         <v>12.290792593192601</v>
       </c>
-      <c r="P62" s="61">
+      <c r="P62" s="59">
         <v>42.513734990211702</v>
       </c>
-      <c r="Q62" s="59">
+      <c r="Q62" s="60">
         <v>14.7732732578107</v>
       </c>
       <c r="R62" s="60">
@@ -5164,25 +5163,25 @@
       <c r="J63" s="65">
         <v>23.008830126131699</v>
       </c>
-      <c r="K63" s="60">
+      <c r="K63" s="65">
         <v>5.7267790044931504</v>
       </c>
-      <c r="L63" s="66">
+      <c r="L63" s="65">
         <v>13.922191562368999</v>
       </c>
-      <c r="M63" s="64">
+      <c r="M63" s="65">
         <v>9.55890079259364</v>
       </c>
       <c r="N63" s="65">
         <v>43.543878819562103</v>
       </c>
-      <c r="O63" s="60">
+      <c r="O63" s="66">
         <v>16.831042654395599</v>
       </c>
-      <c r="P63" s="66">
+      <c r="P63" s="64">
         <v>16.4438347015722</v>
       </c>
-      <c r="Q63" s="64">
+      <c r="Q63" s="65">
         <v>22.023807578172999</v>
       </c>
       <c r="R63" s="65">
@@ -5221,25 +5220,25 @@
       <c r="J64" s="70">
         <v>24.2752895769239</v>
       </c>
-      <c r="K64" s="65">
+      <c r="K64" s="70">
         <v>5.7324347229499004</v>
       </c>
-      <c r="L64" s="71">
+      <c r="L64" s="70">
         <v>18.1032893353158</v>
       </c>
-      <c r="M64" s="69">
+      <c r="M64" s="70">
         <v>7.8700687675940397</v>
       </c>
       <c r="N64" s="70">
         <v>37.403629613692701</v>
       </c>
-      <c r="O64" s="65">
+      <c r="O64" s="71">
         <v>16.120535067662001</v>
       </c>
-      <c r="P64" s="71">
+      <c r="P64" s="69">
         <v>15.935804890613401</v>
       </c>
-      <c r="Q64" s="69">
+      <c r="Q64" s="70">
         <v>19.610996498801601</v>
       </c>
       <c r="R64" s="70">
@@ -5281,22 +5280,22 @@
       <c r="K65" s="74">
         <v>6.9726753216818897</v>
       </c>
-      <c r="L65" s="66">
+      <c r="L65" s="74">
         <v>11.667770877204401</v>
       </c>
-      <c r="M65" s="73">
+      <c r="M65" s="74">
         <v>8.2953213961253702</v>
       </c>
       <c r="N65" s="74">
         <v>31.975033290320699</v>
       </c>
-      <c r="O65" s="74">
+      <c r="O65" s="66">
         <v>25.034529420073898</v>
       </c>
-      <c r="P65" s="66">
+      <c r="P65" s="73">
         <v>30.549727667726501</v>
       </c>
-      <c r="Q65" s="73">
+      <c r="Q65" s="74">
         <v>22.264441728480399</v>
       </c>
       <c r="R65" s="74">
@@ -5338,22 +5337,22 @@
       <c r="K66" s="78">
         <v>5.7691275180568704</v>
       </c>
-      <c r="L66" s="79">
+      <c r="L66" s="78">
         <v>13.937126853231799</v>
       </c>
-      <c r="M66" s="77">
+      <c r="M66" s="78">
         <v>9.5395999481186902</v>
       </c>
       <c r="N66" s="78">
         <v>43.106995271769797</v>
       </c>
-      <c r="O66" s="78">
+      <c r="O66" s="79">
         <v>16.701529481656301</v>
       </c>
-      <c r="P66" s="79">
+      <c r="P66" s="77">
         <v>24.206220742571599</v>
       </c>
-      <c r="Q66" s="77">
+      <c r="Q66" s="78">
         <v>19.864940617615598</v>
       </c>
       <c r="R66" s="78">
@@ -5395,22 +5394,22 @@
       <c r="K67" s="74">
         <v>7.7399563385701002</v>
       </c>
-      <c r="L67" s="66">
+      <c r="L67" s="74">
         <v>14.2471245456811</v>
       </c>
-      <c r="M67" s="73">
+      <c r="M67" s="74">
         <v>8.3963219154431794</v>
       </c>
       <c r="N67" s="74">
         <v>28.769996340259301</v>
       </c>
-      <c r="O67" s="74">
+      <c r="O67" s="66">
         <v>12.890146176072101</v>
       </c>
-      <c r="P67" s="66">
+      <c r="P67" s="73">
         <v>41.864818506101201</v>
       </c>
-      <c r="Q67" s="73">
+      <c r="Q67" s="74">
         <v>14.5084481507454</v>
       </c>
       <c r="R67" s="74">
@@ -5452,22 +5451,22 @@
       <c r="K68" s="74">
         <v>7.1055131014905299</v>
       </c>
-      <c r="L68" s="66">
+      <c r="L68" s="74">
         <v>14.872524946418601</v>
       </c>
-      <c r="M68" s="73">
+      <c r="M68" s="74">
         <v>9.3824370865642504</v>
       </c>
       <c r="N68" s="74">
         <v>26.1025407946792</v>
       </c>
-      <c r="O68" s="74">
+      <c r="O68" s="66">
         <v>14.1271773193826</v>
       </c>
-      <c r="P68" s="66">
+      <c r="P68" s="73">
         <v>41.718996901094101</v>
       </c>
-      <c r="Q68" s="73">
+      <c r="Q68" s="74">
         <v>14.8099474174749</v>
       </c>
       <c r="R68" s="74">
@@ -5509,22 +5508,22 @@
       <c r="K69" s="74">
         <v>7.6011400949872998</v>
       </c>
-      <c r="L69" s="66">
+      <c r="L69" s="74">
         <v>10.342201585724</v>
       </c>
-      <c r="M69" s="73">
+      <c r="M69" s="74">
         <v>10.551347675766801</v>
       </c>
       <c r="N69" s="74">
         <v>24.8344920572364</v>
       </c>
-      <c r="O69" s="74">
+      <c r="O69" s="66">
         <v>11.355447058763</v>
       </c>
-      <c r="P69" s="66">
+      <c r="P69" s="73">
         <v>60.697097912381601</v>
       </c>
-      <c r="Q69" s="73">
+      <c r="Q69" s="74">
         <v>10.3158963696839</v>
       </c>
       <c r="R69" s="74">
@@ -5566,22 +5565,22 @@
       <c r="K70" s="74">
         <v>4.6974546431844999</v>
       </c>
-      <c r="L70" s="66">
+      <c r="L70" s="74">
         <v>15.819586275450201</v>
       </c>
-      <c r="M70" s="73">
+      <c r="M70" s="74">
         <v>6.2921932512866299</v>
       </c>
       <c r="N70" s="74">
         <v>18.5755506098327</v>
       </c>
-      <c r="O70" s="74">
+      <c r="O70" s="66">
         <v>11.867545065077399</v>
       </c>
-      <c r="P70" s="66">
+      <c r="P70" s="73">
         <v>52.249739333357503</v>
       </c>
-      <c r="Q70" s="73">
+      <c r="Q70" s="74">
         <v>12.335309326200999</v>
       </c>
       <c r="R70" s="74">
@@ -5623,22 +5622,22 @@
       <c r="K71" s="74">
         <v>7.7557114800067701</v>
       </c>
-      <c r="L71" s="66">
+      <c r="L71" s="74">
         <v>14.767150088403</v>
       </c>
-      <c r="M71" s="73">
+      <c r="M71" s="74">
         <v>11.326143114653</v>
       </c>
       <c r="N71" s="74">
         <v>20.050836626664399</v>
       </c>
-      <c r="O71" s="74">
+      <c r="O71" s="66">
         <v>13.41591453357</v>
       </c>
-      <c r="P71" s="66">
+      <c r="P71" s="73">
         <v>45.084729785298101</v>
       </c>
-      <c r="Q71" s="73">
+      <c r="Q71" s="74">
         <v>13.309039682560099</v>
       </c>
       <c r="R71" s="74">
@@ -5680,22 +5679,22 @@
       <c r="K72" s="74">
         <v>10.352486693064</v>
       </c>
-      <c r="L72" s="66">
+      <c r="L72" s="74">
         <v>13.095852201798801</v>
       </c>
-      <c r="M72" s="73">
+      <c r="M72" s="74">
         <v>9.1567684057863108</v>
       </c>
       <c r="N72" s="74">
         <v>26.0955885209275</v>
       </c>
-      <c r="O72" s="74">
+      <c r="O72" s="66">
         <v>7.8630446295168301</v>
       </c>
-      <c r="P72" s="66">
+      <c r="P72" s="73">
         <v>41.831692164968501</v>
       </c>
-      <c r="Q72" s="73">
+      <c r="Q72" s="74">
         <v>11.5467287408648</v>
       </c>
       <c r="R72" s="74">
@@ -5737,22 +5736,22 @@
       <c r="K73" s="74">
         <v>4.8370482298047897</v>
       </c>
-      <c r="L73" s="66">
+      <c r="L73" s="74">
         <v>14.8264998306484</v>
       </c>
-      <c r="M73" s="73">
+      <c r="M73" s="74">
         <v>7.2179732040353501</v>
       </c>
       <c r="N73" s="74">
         <v>34.573170295114302</v>
       </c>
-      <c r="O73" s="74">
+      <c r="O73" s="66">
         <v>12.2405079309936</v>
       </c>
-      <c r="P73" s="66">
+      <c r="P73" s="73">
         <v>42.6758641548074</v>
       </c>
-      <c r="Q73" s="73">
+      <c r="Q73" s="74">
         <v>14.6349022848886</v>
       </c>
       <c r="R73" s="74">
@@ -5794,22 +5793,22 @@
       <c r="K74" s="74">
         <v>8.2939845184189807</v>
       </c>
-      <c r="L74" s="66">
+      <c r="L74" s="74">
         <v>14.010751854199301</v>
       </c>
-      <c r="M74" s="73">
+      <c r="M74" s="74">
         <v>8.1077866182088094</v>
       </c>
       <c r="N74" s="74">
         <v>32.093455127210603</v>
       </c>
-      <c r="O74" s="74">
+      <c r="O74" s="66">
         <v>9.2163937141496497</v>
       </c>
-      <c r="P74" s="66">
+      <c r="P74" s="73">
         <v>19.771089393161098</v>
       </c>
-      <c r="Q74" s="73">
+      <c r="Q74" s="74">
         <v>25.153240568298401</v>
       </c>
       <c r="R74" s="74">
@@ -5848,25 +5847,25 @@
       <c r="J75" s="65">
         <v>36.270642568695003</v>
       </c>
-      <c r="K75" s="78">
+      <c r="K75" s="65">
         <v>5.5432134304592902</v>
       </c>
-      <c r="L75" s="66">
+      <c r="L75" s="65">
         <v>20.967990427801102</v>
       </c>
-      <c r="M75" s="64">
+      <c r="M75" s="65">
         <v>3.3924436830948399</v>
       </c>
       <c r="N75" s="65">
         <v>18.056891748133499</v>
       </c>
-      <c r="O75" s="78">
+      <c r="O75" s="66">
         <v>7.6966106068133202</v>
       </c>
-      <c r="P75" s="66">
+      <c r="P75" s="64">
         <v>41.248507627337098</v>
       </c>
-      <c r="Q75" s="64">
+      <c r="Q75" s="65">
         <v>13.444562836765501</v>
       </c>
       <c r="R75" s="65">
@@ -5905,25 +5904,25 @@
       <c r="J76" s="83">
         <v>30.9888892707616</v>
       </c>
-      <c r="K76" s="74">
+      <c r="K76" s="83">
         <v>6.6340840121497404</v>
       </c>
-      <c r="L76" s="84">
+      <c r="L76" s="83">
         <v>17.7911130651467</v>
       </c>
-      <c r="M76" s="82">
+      <c r="M76" s="83">
         <v>9.6428743633703409</v>
       </c>
       <c r="N76" s="83">
         <v>24.810321796042501</v>
       </c>
-      <c r="O76" s="74">
+      <c r="O76" s="84">
         <v>21.798477803724602</v>
       </c>
-      <c r="P76" s="84">
+      <c r="P76" s="82">
         <v>27.7102078674524</v>
       </c>
-      <c r="Q76" s="82">
+      <c r="Q76" s="83">
         <v>21.503190588424701</v>
       </c>
       <c r="R76" s="83">
@@ -5965,22 +5964,22 @@
       <c r="K77" s="74">
         <v>4.7871955230659404</v>
       </c>
-      <c r="L77" s="66">
+      <c r="L77" s="74">
         <v>15.644738750595</v>
       </c>
-      <c r="M77" s="73">
+      <c r="M77" s="74">
         <v>7.2432630821917003</v>
       </c>
       <c r="N77" s="74">
         <v>40.634376156626402</v>
       </c>
-      <c r="O77" s="74">
+      <c r="O77" s="66">
         <v>14.064306734325401</v>
       </c>
-      <c r="P77" s="66">
+      <c r="P77" s="73">
         <v>15.571318962924799</v>
       </c>
-      <c r="Q77" s="73">
+      <c r="Q77" s="74">
         <v>20.491938072736001</v>
       </c>
       <c r="R77" s="74">
@@ -6022,22 +6021,22 @@
       <c r="K78" s="74">
         <v>5.4859360918277602</v>
       </c>
-      <c r="L78" s="66">
+      <c r="L78" s="74">
         <v>14.337628069284399</v>
       </c>
-      <c r="M78" s="73">
+      <c r="M78" s="74">
         <v>10.5464196895166</v>
       </c>
       <c r="N78" s="74">
         <v>47.200409937840597</v>
       </c>
-      <c r="O78" s="74">
+      <c r="O78" s="66">
         <v>16.6762701188911</v>
       </c>
-      <c r="P78" s="66">
+      <c r="P78" s="73">
         <v>4.50658029165497</v>
       </c>
-      <c r="Q78" s="73">
+      <c r="Q78" s="74">
         <v>24.1584119896937</v>
       </c>
       <c r="R78" s="74">
@@ -6079,22 +6078,22 @@
       <c r="K79" s="78">
         <v>5.1074564810884198</v>
       </c>
-      <c r="L79" s="79">
+      <c r="L79" s="78">
         <v>14.7686634643542</v>
       </c>
-      <c r="M79" s="77">
+      <c r="M79" s="78">
         <v>10.372084210329399</v>
       </c>
       <c r="N79" s="78">
         <v>50.028148492120103</v>
       </c>
-      <c r="O79" s="78">
+      <c r="O79" s="79">
         <v>13.558849923754099</v>
       </c>
-      <c r="P79" s="79">
+      <c r="P79" s="77">
         <v>4.86945026174073</v>
       </c>
-      <c r="Q79" s="77">
+      <c r="Q79" s="78">
         <v>22.486621838803401</v>
       </c>
       <c r="R79" s="78">
@@ -6136,22 +6135,22 @@
       <c r="K80" s="74">
         <v>8.0151220901083704</v>
       </c>
-      <c r="L80" s="66">
+      <c r="L80" s="74">
         <v>14.5320636711605</v>
       </c>
-      <c r="M80" s="73">
+      <c r="M80" s="74">
         <v>7.0415964968039404</v>
       </c>
       <c r="N80" s="74">
         <v>23.603877910849299</v>
       </c>
-      <c r="O80" s="74">
+      <c r="O80" s="66">
         <v>6.4559425984868</v>
       </c>
-      <c r="P80" s="66">
+      <c r="P80" s="73">
         <v>36.9521817880916</v>
       </c>
-      <c r="Q80" s="73">
+      <c r="Q80" s="74">
         <v>17.0512467528762</v>
       </c>
       <c r="R80" s="74">
@@ -6193,22 +6192,22 @@
       <c r="K81" s="74">
         <v>6.3773980736990099</v>
       </c>
-      <c r="L81" s="66">
+      <c r="L81" s="74">
         <v>12.717206406225801</v>
       </c>
-      <c r="M81" s="73">
+      <c r="M81" s="74">
         <v>7.3778312291681001</v>
       </c>
       <c r="N81" s="74">
         <v>30.3461756981043</v>
       </c>
-      <c r="O81" s="74">
+      <c r="O81" s="66">
         <v>13.6419979790849</v>
       </c>
-      <c r="P81" s="66">
+      <c r="P81" s="73">
         <v>14.248481657686201</v>
       </c>
-      <c r="Q81" s="73">
+      <c r="Q81" s="74">
         <v>24.857312405583698</v>
       </c>
       <c r="R81" s="74">
@@ -6250,22 +6249,22 @@
       <c r="K82" s="74">
         <v>7.0642620475992697</v>
       </c>
-      <c r="L82" s="66">
+      <c r="L82" s="74">
         <v>14.429974002473999</v>
       </c>
-      <c r="M82" s="73">
+      <c r="M82" s="74">
         <v>9.2191536782377597</v>
       </c>
       <c r="N82" s="74">
         <v>29.0747052975683</v>
       </c>
-      <c r="O82" s="74">
+      <c r="O82" s="66">
         <v>13.358642109158501</v>
       </c>
-      <c r="P82" s="66">
+      <c r="P82" s="73">
         <v>43.807119455821002</v>
       </c>
-      <c r="Q82" s="73">
+      <c r="Q82" s="74">
         <v>14.2435119798884</v>
       </c>
       <c r="R82" s="74">
@@ -6304,25 +6303,25 @@
       <c r="J83" s="65">
         <v>22.000168084433898</v>
       </c>
-      <c r="K83" s="78">
+      <c r="K83" s="65">
         <v>5.6851080377488898</v>
       </c>
-      <c r="L83" s="66">
+      <c r="L83" s="65">
         <v>13.9993686675994</v>
       </c>
-      <c r="M83" s="64">
+      <c r="M83" s="65">
         <v>9.6985943268691504</v>
       </c>
       <c r="N83" s="65">
         <v>44.389167674292501</v>
       </c>
-      <c r="O83" s="78">
+      <c r="O83" s="66">
         <v>17.035295159279901</v>
       </c>
-      <c r="P83" s="66">
+      <c r="P83" s="64">
         <v>16.912745060460502</v>
       </c>
-      <c r="Q83" s="64">
+      <c r="Q83" s="65">
         <v>21.418592954842499</v>
       </c>
       <c r="R83" s="65">
@@ -6361,25 +6360,25 @@
       <c r="J84" s="83">
         <v>20.962939040456501</v>
       </c>
-      <c r="K84" s="74">
+      <c r="K84" s="83">
         <v>7.7145640150643002</v>
       </c>
-      <c r="L84" s="84">
+      <c r="L84" s="83">
         <v>13.0007562815965</v>
       </c>
-      <c r="M84" s="82">
+      <c r="M84" s="83">
         <v>6.4174603488073103</v>
       </c>
       <c r="N84" s="83">
         <v>21.549834303986401</v>
       </c>
-      <c r="O84" s="74">
+      <c r="O84" s="84">
         <v>10.4492214722362</v>
       </c>
-      <c r="P84" s="84">
+      <c r="P84" s="82">
         <v>58.851880056346999</v>
       </c>
-      <c r="Q84" s="82">
+      <c r="Q84" s="83">
         <v>10.0209037646348</v>
       </c>
       <c r="R84" s="83">
@@ -6421,22 +6420,22 @@
       <c r="K85" s="74">
         <v>4.3454637985217701</v>
       </c>
-      <c r="L85" s="86">
+      <c r="L85" s="74">
         <v>11.9932012352507</v>
       </c>
-      <c r="M85" s="73">
+      <c r="M85" s="74">
         <v>7.9039486932783998</v>
       </c>
       <c r="N85" s="74">
         <v>24.5849515135979</v>
       </c>
-      <c r="O85" s="74">
+      <c r="O85" s="86">
         <v>11.004766092388101</v>
       </c>
-      <c r="P85" s="86">
+      <c r="P85" s="73">
         <v>34.3816662901068</v>
       </c>
-      <c r="Q85" s="73">
+      <c r="Q85" s="74">
         <v>16.462896742673401</v>
       </c>
       <c r="R85" s="74">
@@ -6478,22 +6477,22 @@
       <c r="K86" s="74">
         <v>8.2217308494338397</v>
       </c>
-      <c r="L86" s="66">
+      <c r="L86" s="74">
         <v>15.251279379442201</v>
       </c>
-      <c r="M86" s="73">
+      <c r="M86" s="74">
         <v>9.8947929400700794</v>
       </c>
       <c r="N86" s="74">
         <v>25.134917839171301</v>
       </c>
-      <c r="O86" s="74">
+      <c r="O86" s="66">
         <v>12.7213867597563</v>
       </c>
-      <c r="P86" s="66">
+      <c r="P86" s="73">
         <v>33.201466084070297</v>
       </c>
-      <c r="Q86" s="73">
+      <c r="Q86" s="74">
         <v>18.292565165561399</v>
       </c>
       <c r="R86" s="74">
@@ -6535,22 +6534,22 @@
       <c r="K87" s="74">
         <v>7.2040142731683598</v>
       </c>
-      <c r="L87" s="66">
+      <c r="L87" s="74">
         <v>12.1917027637658</v>
       </c>
-      <c r="M87" s="73">
+      <c r="M87" s="74">
         <v>8.7173784772961298</v>
       </c>
       <c r="N87" s="74">
         <v>32.837346028434702</v>
       </c>
-      <c r="O87" s="74">
+      <c r="O87" s="66">
         <v>16.709277870982501</v>
       </c>
-      <c r="P87" s="66">
+      <c r="P87" s="73">
         <v>32.424190360579097</v>
       </c>
-      <c r="Q87" s="73">
+      <c r="Q87" s="74">
         <v>20.017164034739601</v>
       </c>
       <c r="R87" s="74">
@@ -6592,22 +6591,22 @@
       <c r="K88" s="74">
         <v>2.9746178324322599</v>
       </c>
-      <c r="L88" s="66">
+      <c r="L88" s="74">
         <v>12.6355898089693</v>
       </c>
-      <c r="M88" s="73">
+      <c r="M88" s="74">
         <v>7.2112714269034797</v>
       </c>
       <c r="N88" s="74">
         <v>45.625165804693196</v>
       </c>
-      <c r="O88" s="74">
+      <c r="O88" s="66">
         <v>12.293322221683701</v>
       </c>
-      <c r="P88" s="66">
+      <c r="P88" s="73">
         <v>23.0930581748427</v>
       </c>
-      <c r="Q88" s="73">
+      <c r="Q88" s="74">
         <v>17.643147981217901</v>
       </c>
       <c r="R88" s="74">
@@ -6649,22 +6648,22 @@
       <c r="K89" s="74">
         <v>6.6841172877641002</v>
       </c>
-      <c r="L89" s="66">
+      <c r="L89" s="74">
         <v>13.333607220661699</v>
       </c>
-      <c r="M89" s="73">
+      <c r="M89" s="74">
         <v>8.3142871597447296</v>
       </c>
       <c r="N89" s="74">
         <v>32.851360192434399</v>
       </c>
-      <c r="O89" s="74">
+      <c r="O89" s="66">
         <v>24.198868540152102</v>
       </c>
-      <c r="P89" s="66">
+      <c r="P89" s="73">
         <v>19.611002753873699</v>
       </c>
-      <c r="Q89" s="73">
+      <c r="Q89" s="74">
         <v>22.370680081798302</v>
       </c>
       <c r="R89" s="74">
@@ -6706,22 +6705,22 @@
       <c r="K90" s="78">
         <v>5.11907741410249</v>
       </c>
-      <c r="L90" s="79">
+      <c r="L90" s="78">
         <v>14.363184058886301</v>
       </c>
-      <c r="M90" s="77">
+      <c r="M90" s="78">
         <v>10.2626563680797</v>
       </c>
       <c r="N90" s="78">
         <v>49.947158127663101</v>
       </c>
-      <c r="O90" s="78">
+      <c r="O90" s="79">
         <v>13.215671077872001</v>
       </c>
-      <c r="P90" s="79">
+      <c r="P90" s="77">
         <v>4.1126627998236103</v>
       </c>
-      <c r="Q90" s="77">
+      <c r="Q90" s="78">
         <v>23.342684552984</v>
       </c>
       <c r="R90" s="78">
@@ -6763,22 +6762,22 @@
       <c r="K91" s="74">
         <v>7.8608945486409496</v>
       </c>
-      <c r="L91" s="66">
+      <c r="L91" s="74">
         <v>14.9624367901197</v>
       </c>
-      <c r="M91" s="73">
+      <c r="M91" s="74">
         <v>6.4994439959331096</v>
       </c>
       <c r="N91" s="74">
         <v>21.134815631351302</v>
       </c>
-      <c r="O91" s="74">
+      <c r="O91" s="66">
         <v>9.7847485632933608</v>
       </c>
-      <c r="P91" s="66">
+      <c r="P91" s="73">
         <v>51.667248135898397</v>
       </c>
-      <c r="Q91" s="73">
+      <c r="Q91" s="74">
         <v>11.7151242166993</v>
       </c>
       <c r="R91" s="74">
@@ -6820,22 +6819,22 @@
       <c r="K92" s="74">
         <v>8.9301210957552506</v>
       </c>
-      <c r="L92" s="66">
+      <c r="L92" s="74">
         <v>16.4303872505971</v>
       </c>
-      <c r="M92" s="73">
+      <c r="M92" s="74">
         <v>8.8226263580945705</v>
       </c>
       <c r="N92" s="74">
         <v>25.615407353257702</v>
       </c>
-      <c r="O92" s="74">
+      <c r="O92" s="66">
         <v>20.801862573959099</v>
       </c>
-      <c r="P92" s="66">
+      <c r="P92" s="73">
         <v>44.864950112102697</v>
       </c>
-      <c r="Q92" s="73">
+      <c r="Q92" s="74">
         <v>15.731296021627299</v>
       </c>
       <c r="R92" s="74">
@@ -6877,22 +6876,22 @@
       <c r="K93" s="74">
         <v>5.2242514087999901</v>
       </c>
-      <c r="L93" s="66">
+      <c r="L93" s="74">
         <v>20.108390503027799</v>
       </c>
-      <c r="M93" s="73">
+      <c r="M93" s="74">
         <v>9.2829854708072901</v>
       </c>
       <c r="N93" s="74">
         <v>43.281955029843601</v>
       </c>
-      <c r="O93" s="74">
+      <c r="O93" s="66">
         <v>11.271773749768199</v>
       </c>
-      <c r="P93" s="66">
+      <c r="P93" s="73">
         <v>23.9126133172302</v>
       </c>
-      <c r="Q93" s="73">
+      <c r="Q93" s="74">
         <v>17.801580944655001</v>
       </c>
       <c r="R93" s="74">
@@ -6934,22 +6933,22 @@
       <c r="K94" s="74">
         <v>6.0774128917594901</v>
       </c>
-      <c r="L94" s="66">
+      <c r="L94" s="74">
         <v>19.947808202150402</v>
       </c>
-      <c r="M94" s="73">
+      <c r="M94" s="74">
         <v>11.519850793127301</v>
       </c>
       <c r="N94" s="74">
         <v>38.322230274998901</v>
       </c>
-      <c r="O94" s="74">
+      <c r="O94" s="66">
         <v>16.506659298279299</v>
       </c>
-      <c r="P94" s="66">
+      <c r="P94" s="73">
         <v>17.963257856430701</v>
       </c>
-      <c r="Q94" s="73">
+      <c r="Q94" s="74">
         <v>17.6804671810998</v>
       </c>
       <c r="R94" s="74">
@@ -6991,22 +6990,22 @@
       <c r="K95" s="74">
         <v>10.2617504746294</v>
       </c>
-      <c r="L95" s="66">
+      <c r="L95" s="74">
         <v>14.0890703084465</v>
       </c>
-      <c r="M95" s="73">
+      <c r="M95" s="74">
         <v>5.9315564046345397</v>
       </c>
       <c r="N95" s="74">
         <v>23.180040770391599</v>
       </c>
-      <c r="O95" s="74">
+      <c r="O95" s="66">
         <v>10.5008444356707</v>
       </c>
-      <c r="P95" s="66">
+      <c r="P95" s="73">
         <v>57.661345550175703</v>
       </c>
-      <c r="Q95" s="73">
+      <c r="Q95" s="74">
         <v>11.9385577952805</v>
       </c>
       <c r="R95" s="74">
@@ -7045,25 +7044,25 @@
       <c r="J96" s="65">
         <v>30.875665129786199</v>
       </c>
-      <c r="K96" s="78">
+      <c r="K96" s="65">
         <v>6.0987357094842798</v>
       </c>
-      <c r="L96" s="66">
+      <c r="L96" s="65">
         <v>13.737858867647001</v>
       </c>
-      <c r="M96" s="64">
+      <c r="M96" s="65">
         <v>8.3020314196236207</v>
       </c>
       <c r="N96" s="65">
         <v>28.724020355876199</v>
       </c>
-      <c r="O96" s="78">
+      <c r="O96" s="66">
         <v>15.184858321370401</v>
       </c>
-      <c r="P96" s="66">
+      <c r="P96" s="64">
         <v>36.897054299620898</v>
       </c>
-      <c r="Q96" s="64">
+      <c r="Q96" s="65">
         <v>19.803531342196099</v>
       </c>
       <c r="R96" s="65">
@@ -7102,25 +7101,25 @@
       <c r="J97" s="83">
         <v>21.542796058360899</v>
       </c>
-      <c r="K97" s="74">
+      <c r="K97" s="83">
         <v>8.7647364707144693</v>
       </c>
-      <c r="L97" s="84">
+      <c r="L97" s="83">
         <v>14.344412278773101</v>
       </c>
-      <c r="M97" s="82">
+      <c r="M97" s="83">
         <v>9.7516558438594405</v>
       </c>
       <c r="N97" s="83">
         <v>22.206917275381802</v>
       </c>
-      <c r="O97" s="74">
+      <c r="O97" s="84">
         <v>11.0803012606441</v>
       </c>
-      <c r="P97" s="84">
+      <c r="P97" s="82">
         <v>46.7289818448414</v>
       </c>
-      <c r="Q97" s="82">
+      <c r="Q97" s="83">
         <v>12.6458255225056</v>
       </c>
       <c r="R97" s="83">
@@ -7162,22 +7161,22 @@
       <c r="K98" s="78">
         <v>5.7547597496924698</v>
       </c>
-      <c r="L98" s="79">
+      <c r="L98" s="78">
         <v>17.0274147122885</v>
       </c>
-      <c r="M98" s="77">
+      <c r="M98" s="78">
         <v>8.35467295287018</v>
       </c>
       <c r="N98" s="78">
         <v>26.461208746868</v>
       </c>
-      <c r="O98" s="78">
+      <c r="O98" s="79">
         <v>19.726018003216801</v>
       </c>
-      <c r="P98" s="79">
+      <c r="P98" s="77">
         <v>33.919528433887599</v>
       </c>
-      <c r="Q98" s="77">
+      <c r="Q98" s="78">
         <v>19.820004390707901</v>
       </c>
       <c r="R98" s="78">
@@ -7443,7 +7442,7 @@
       <c r="S110" s="90"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B111" s="93" t="s">
+      <c r="B111" s="92" t="s">
         <v>179</v>
       </c>
       <c r="C111" s="90"/>
@@ -7465,7 +7464,7 @@
       <c r="S111" s="90"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="92" t="s">
         <v>176</v>
       </c>
       <c r="C112" s="90"/>
@@ -7528,11 +7527,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{775268E2-7008-4261-BE0F-F68440943295}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{72A153CA-A0FC-46B0-8A83-667F946C4851}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{64DD2BC6-58F5-4407-8B23-414B0854D3DD}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{A9FAA73E-104D-4F7C-95A4-DECE305F4A63}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{52959FE2-F7E3-499E-9961-C6B8B42E8C20}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{ABFFBF4F-5BF4-4F60-A096-1CA6F626F8CC}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{48453597-9711-40E1-9B3C-6D633F2E21C7}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{A9AC4FB9-5FDB-4210-9238-5D4ADF43C844}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{4FC20CE3-4E17-4079-B4FE-9B3EF35E9B09}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{E6C65E05-F065-4F1D-A4F0-272B480408AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab08.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAAFEA01-47AE-4577-9185-1F95915D2046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D161ECB7-F3C9-4B19-A138-DEB6011FE840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{E71F6DA5-0340-40A9-A9CE-8E83606EE7C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0717F863-B5CC-432B-A338-F637595F249A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="182">
   <si>
     <t>Tableau 8 : Ventilation sectorielle de l’économie</t>
   </si>
@@ -483,13 +483,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -1504,7 +1510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38111A18-4D90-41DD-858F-BDAFF53C7DAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC9E46D-337A-4B47-BA15-16C00CF852C2}">
   <dimension ref="A1:S114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -5764,7 +5770,7 @@
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="67"/>
       <c r="B74" s="63" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C74" s="73">
         <v>1.397670716906E-2</v>
@@ -5821,7 +5827,7 @@
     <row r="75" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="67"/>
       <c r="B75" s="63" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C75" s="64">
         <v>0.84659225690560003</v>
@@ -5878,7 +5884,7 @@
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="67"/>
       <c r="B76" s="81" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C76" s="82">
         <v>0.54754082659351999</v>
@@ -5935,7 +5941,7 @@
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="67"/>
       <c r="B77" s="63" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C77" s="73">
         <v>9.509902644703E-2</v>
@@ -5992,7 +5998,7 @@
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="67"/>
       <c r="B78" s="63" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C78" s="73">
         <v>2.3933557613589999E-2</v>
@@ -6049,7 +6055,7 @@
     <row r="79" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="67"/>
       <c r="B79" s="76" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C79" s="77">
         <v>9.4797775667220002E-2</v>
@@ -6106,7 +6112,7 @@
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="67"/>
       <c r="B80" s="63" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C80" s="73">
         <v>7.8108648374780001E-2</v>
@@ -6163,7 +6169,7 @@
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="67"/>
       <c r="B81" s="63" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C81" s="73">
         <v>0.31835909779130001</v>
@@ -6220,7 +6226,7 @@
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="67"/>
       <c r="B82" s="63" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C82" s="73">
         <v>0.36689594475240001</v>
@@ -6277,7 +6283,7 @@
     <row r="83" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="67"/>
       <c r="B83" s="63" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C83" s="64">
         <v>0.33013328395562003</v>
@@ -6334,7 +6340,7 @@
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="67"/>
       <c r="B84" s="81" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C84" s="82">
         <v>0.14203780554529</v>
@@ -6391,7 +6397,7 @@
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="67"/>
       <c r="B85" s="85" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C85" s="73">
         <v>1.939775629505E-2</v>
@@ -6448,7 +6454,7 @@
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="67"/>
       <c r="B86" s="63" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C86" s="73">
         <v>2.437468397834E-2</v>
@@ -6505,7 +6511,7 @@
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="67"/>
       <c r="B87" s="63" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C87" s="73">
         <v>0.77042265271165999</v>
@@ -6562,7 +6568,7 @@
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="67"/>
       <c r="B88" s="63" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C88" s="73">
         <v>1.82388486229992</v>
@@ -6619,7 +6625,7 @@
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="67"/>
       <c r="B89" s="63" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C89" s="73">
         <v>0.48211191399158998</v>
@@ -6676,7 +6682,7 @@
     <row r="90" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="67"/>
       <c r="B90" s="76" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C90" s="77">
         <v>8.5536638560999995E-2</v>
@@ -6733,7 +6739,7 @@
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="67"/>
       <c r="B91" s="63" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C91" s="73">
         <v>0.1133974360901</v>
@@ -6790,7 +6796,7 @@
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="67"/>
       <c r="B92" s="63" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C92" s="73">
         <v>1.6794873192860001E-2</v>
@@ -6847,7 +6853,7 @@
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="67"/>
       <c r="B93" s="63" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C93" s="73">
         <v>1.5675123041118899</v>
@@ -6904,7 +6910,7 @@
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="67"/>
       <c r="B94" s="63" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C94" s="73">
         <v>0</v>
@@ -6961,7 +6967,7 @@
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="67"/>
       <c r="B95" s="63" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C95" s="73">
         <v>6.0586335111370002E-2</v>
@@ -7018,7 +7024,7 @@
     <row r="96" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="67"/>
       <c r="B96" s="63" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C96" s="64">
         <v>0.43305694719905002</v>
@@ -7075,7 +7081,7 @@
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="67"/>
       <c r="B97" s="81" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C97" s="82">
         <v>6.8814352914720003E-2</v>
@@ -7132,7 +7138,7 @@
     <row r="98" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="67"/>
       <c r="B98" s="76" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C98" s="77">
         <v>4.791629738856E-2</v>
@@ -7209,7 +7215,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C100" s="90"/>
       <c r="D100" s="90"/>
@@ -7231,7 +7237,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C101" s="90"/>
       <c r="D101" s="90"/>
@@ -7253,7 +7259,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C102" s="90"/>
       <c r="D102" s="90"/>
@@ -7275,7 +7281,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C103" s="90"/>
       <c r="D103" s="90"/>
@@ -7297,7 +7303,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C104" s="90"/>
       <c r="D104" s="90"/>
@@ -7357,7 +7363,7 @@
     </row>
     <row r="107" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="91" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C107" s="90"/>
       <c r="D107" s="90"/>
@@ -7399,7 +7405,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C109" s="90"/>
       <c r="D109" s="90"/>
@@ -7421,7 +7427,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C110" s="90"/>
       <c r="D110" s="90"/>
@@ -7443,7 +7449,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B111" s="92" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C111" s="90"/>
       <c r="D111" s="90"/>
@@ -7465,7 +7471,7 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B112" s="92" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C112" s="90"/>
       <c r="D112" s="90"/>
@@ -7527,11 +7533,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{ABFFBF4F-5BF4-4F60-A096-1CA6F626F8CC}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{48453597-9711-40E1-9B3C-6D633F2E21C7}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{A9AC4FB9-5FDB-4210-9238-5D4ADF43C844}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{4FC20CE3-4E17-4079-B4FE-9B3EF35E9B09}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{E6C65E05-F065-4F1D-A4F0-272B480408AB}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{5F7E8934-FFDA-428C-A365-FE8E998A7810}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{EADF5984-4B39-4906-A17B-B736FB34F470}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{C45666CF-CFAD-4B12-8FD1-AC037F98453E}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{59218FC9-4FF0-4B43-A62E-41FF69A1A4B9}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{6280DEC4-B647-42A1-9B09-91ED89FFCBE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
